--- a/Mifos Automation Excels/Loan Product/488-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/488-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="30" windowWidth="16380" windowHeight="8130" activeTab="1"/>
+    <workbookView xWindow="11460" yWindow="30" windowWidth="16380" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -666,7 +666,7 @@
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -968,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Mifos Automation Excels/Loan Product/488-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/488-RBI-EPP-DB-DL-REC-NON-RNI-CTRFD-DL-MD-TR-1-EarlyRePayment-Loanproduct.xlsx
@@ -104,9 +104,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -688,7 +688,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -784,10 +784,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -811,12 +811,12 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="6">
         <v>42005</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="5">
         <v>10000</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>8</v>
@@ -864,98 +864,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -978,10 +978,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
